--- a/medicine/Enfance/Jérémy_Behm/Jérémy_Behm.xlsx
+++ b/medicine/Enfance/Jérémy_Behm/Jérémy_Behm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%A9my_Behm</t>
+          <t>Jérémy_Behm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeremy Behm est un écrivain français de littérature pour la jeunesse et de romans policiers. C'est le petit-fils de l'écrivain et scénariste Marc Behm.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%A9my_Behm</t>
+          <t>Jérémy_Behm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte son premier livre dans une maison d’édition à l’âge de 16 ans.  
 Dans la collection Rivages/Noir, il publie plus tard le recueil de nouvelles Démolitions en tous genres en 2011, puis le roman Le Hold-up des salopettes, adaptation d’un scénario de son grand-père, en 2014. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%A9my_Behm</t>
+          <t>Jérémy_Behm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,15 +564,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman
-Le Hold-up des salopettes / Marc Behm et Jeremy Behm, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 856, 2012, 363 p. ( (ISBN 978-2-7436-2325-8))[1] Il s'agit de la novélisation d'un scénario de son grand-père Marc.
-Recueil de nouvelles
-Démolitions en tous genres, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 833, 2011, 380 p. ( (ISBN 978-2-7436-2253-4)) Quatre récits noirs sur la loi de l'argent, les réflexes de survie, les expérimentations hasardeuses...
-Romans de littérature d'enfance et de jeunesse
-Mon ami Arnie, Paris, Syros, 2016, 200 p. ( (ISBN 978-2-7485-2126-9))[2]
-Mon ennemi Arnie, Paris, Syros, 2017, 279 p. ( (ISBN 978-2-7485-2350-8))[3]
-1 million de vues, Paris, Syros, 2019, 496 p. ( (ISBN 978-2-7485-2632-5))[4]
-Les Cinq Fantômes, Paris, Casterman, 2020, 192 p. ( (ISBN 978-2-2032-0734-9))[5]
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Hold-up des salopettes / Marc Behm et Jeremy Behm, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 856, 2012, 363 p. ( (ISBN 978-2-7436-2325-8)) Il s'agit de la novélisation d'un scénario de son grand-père Marc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jérémy_Behm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%A9my_Behm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Démolitions en tous genres, Paris, Payot &amp; Rivages, coll. « Rivages/Noir » no 833, 2011, 380 p. ( (ISBN 978-2-7436-2253-4)) Quatre récits noirs sur la loi de l'argent, les réflexes de survie, les expérimentations hasardeuses...</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jérémy_Behm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%A9my_Behm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mon ami Arnie, Paris, Syros, 2016, 200 p. ( (ISBN 978-2-7485-2126-9))
+Mon ennemi Arnie, Paris, Syros, 2017, 279 p. ( (ISBN 978-2-7485-2350-8))
+1 million de vues, Paris, Syros, 2019, 496 p. ( (ISBN 978-2-7485-2632-5))
+Les Cinq Fantômes, Paris, Casterman, 2020, 192 p. ( (ISBN 978-2-2032-0734-9))
 L'Étrange Sort de Tig &amp; Corps, Paris, Casterman, 2020, 192 p. ( (ISBN 978-2-2032-0747-9))
 Métamorphoz, Paris, Syros (collection OZ), 2020, 198 p. ( (ISBN 978-2-7485-2739-1))
 Les Chemins de Sancturia, Paris, Syros, 2022, 416 p. ( (ISBN 978-2-748-53084-1))
